--- a/data/提电气资料（环控、动力、FAS、BAS/厂家返/temp/5223--都市工业园站水阀选型--市政院-19.8.2.xlsx
+++ b/data/提电气资料（环控、动力、FAS、BAS/厂家返/temp/5223--都市工业园站水阀选型--市政院-19.8.2.xlsx
@@ -351,6 +351,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -358,6 +370,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -371,6 +384,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -378,43 +457,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
@@ -422,46 +464,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
@@ -469,18 +471,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -511,7 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,19 +559,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,43 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,19 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +766,32 @@
       </diagonal>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -798,32 +824,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color indexed="52"/>
@@ -834,8 +834,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,8 +858,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,142 +879,142 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
